--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t>光明之旅</t>
+  </si>
+  <si>
+    <t>WJBeta125</t>
+  </si>
+  <si>
+    <t>断桥残雪</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1042,12 +1048,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1908,10 +1914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H131"/>
+  <dimension ref="C3:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4182,36 +4188,53 @@
     </row>
     <row r="130" spans="3:7">
       <c r="C130" s="3">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="3">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="13" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="131" spans="3:7">
       <c r="C131" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>252</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" s="3">
+        <v>203</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="3">
+        <v>203</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="257">
   <si>
     <t>Id</t>
   </si>
@@ -840,6 +840,9 @@
   </si>
   <si>
     <t>断桥残雪</t>
+  </si>
+  <si>
+    <t>WJBeta126</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1048,12 +1051,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1914,10 +1917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H132"/>
+  <dimension ref="C3:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4205,36 +4208,51 @@
     </row>
     <row r="131" spans="3:7">
       <c r="C131" s="3">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="3">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="G131" s="13"/>
     </row>
     <row r="132" spans="3:7">
       <c r="C132" s="3">
+        <v>202</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="3">
+        <v>202</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7">
+      <c r="C133" s="3">
         <v>203</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="3">
+      <c r="D133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="3">
         <v>203</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F133" s="5" t="s">
         <v>255</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="258">
   <si>
     <t>Id</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t>WJBeta126</t>
+  </si>
+  <si>
+    <t>南屏晚钟</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1051,18 +1054,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,12 +1099,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,7 +1419,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1446,16 +1443,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1464,89 +1461,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,7 +1564,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1919,8 +1915,8 @@
   <sheetPr/>
   <dimension ref="C3:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3857,7 +3853,7 @@
       <c r="G110" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H110" s="6"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="3:8">
       <c r="C111" s="3">
@@ -3875,7 +3871,7 @@
       <c r="G111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H111" s="6"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="3">
@@ -3885,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="E112" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>215</v>
@@ -3893,7 +3889,7 @@
       <c r="G112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H112" s="8"/>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="3:8">
       <c r="C113" s="3">
@@ -3903,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>217</v>
@@ -3911,7 +3907,7 @@
       <c r="G113" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H113" s="8"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="3:8">
       <c r="C114" s="3">
@@ -3929,7 +3925,7 @@
       <c r="G114" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H114" s="12"/>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" spans="3:8">
       <c r="C115" s="3">
@@ -3947,7 +3943,7 @@
       <c r="G115" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H115" s="12"/>
+      <c r="H115" s="6"/>
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="3">
@@ -3957,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="E116" s="3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>223</v>
@@ -3965,7 +3961,7 @@
       <c r="G116" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="11"/>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="3">
@@ -3975,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="E117" s="3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>225</v>
@@ -3983,9 +3979,9 @@
       <c r="G117" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H117" s="11"/>
-    </row>
-    <row r="118" spans="3:7">
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="3:8">
       <c r="C118" s="3">
         <v>113</v>
       </c>
@@ -4001,8 +3997,9 @@
       <c r="G118" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="119" spans="3:7">
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="3:8">
       <c r="C119" s="3">
         <v>114</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>229</v>
@@ -4018,6 +4015,7 @@
       <c r="G119" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="3:7">
       <c r="C120" s="3">
@@ -4032,7 +4030,7 @@
       <c r="F120" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="G120" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4049,7 +4047,7 @@
       <c r="F121" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="G121" s="12" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4083,7 +4081,7 @@
       <c r="F123" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4100,7 +4098,7 @@
       <c r="F124" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G124" s="13" t="s">
+      <c r="G124" s="12" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4117,7 +4115,7 @@
       <c r="F125" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G125" s="13" t="s">
+      <c r="G125" s="12" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4134,7 +4132,7 @@
       <c r="F126" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G126" s="13" t="s">
+      <c r="G126" s="12" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4151,7 +4149,7 @@
       <c r="F127" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="G127" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4168,7 +4166,7 @@
       <c r="F128" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G128" s="13" t="s">
+      <c r="G128" s="12" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4185,7 +4183,7 @@
       <c r="F129" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G129" s="13" t="s">
+      <c r="G129" s="12" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4202,7 +4200,7 @@
       <c r="F130" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="G130" s="12" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4219,7 +4217,9 @@
       <c r="F131" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G131" s="13"/>
+      <c r="G131" s="12" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="132" spans="3:7">
       <c r="C132" s="3">
@@ -4232,10 +4232,10 @@
         <v>202</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="3:7">
@@ -4249,10 +4249,10 @@
         <v>203</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="260">
   <si>
     <t>Id</t>
   </si>
@@ -846,6 +846,12 @@
   </si>
   <si>
     <t>南屏晚钟</t>
+  </si>
+  <si>
+    <t>WJBeta127</t>
+  </si>
+  <si>
+    <t>璀璨梦境</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1054,18 +1060,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,6 +1105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,16 +1455,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1461,89 +1473,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,6 +1577,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1913,10 +1926,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H133"/>
+  <dimension ref="C3:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4017,7 +4030,7 @@
       </c>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="3:8">
       <c r="C120" s="3">
         <v>115</v>
       </c>
@@ -4033,8 +4046,9 @@
       <c r="G120" s="12" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="121" spans="3:7">
+      <c r="H120" s="13"/>
+    </row>
+    <row r="121" spans="3:8">
       <c r="C121" s="3">
         <v>116</v>
       </c>
@@ -4042,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>233</v>
@@ -4050,8 +4064,9 @@
       <c r="G121" s="12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="122" spans="3:7">
+      <c r="H121" s="13"/>
+    </row>
+    <row r="122" spans="3:8">
       <c r="C122" s="3">
         <v>117</v>
       </c>
@@ -4067,8 +4082,9 @@
       <c r="G122" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="123" spans="3:7">
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="3:8">
       <c r="C123" s="3">
         <v>118</v>
       </c>
@@ -4076,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>237</v>
@@ -4084,8 +4100,9 @@
       <c r="G123" s="12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="124" spans="3:7">
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="3:8">
       <c r="C124" s="3">
         <v>119</v>
       </c>
@@ -4101,8 +4118,9 @@
       <c r="G124" s="12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="125" spans="3:7">
+      <c r="H124" s="11"/>
+    </row>
+    <row r="125" spans="3:8">
       <c r="C125" s="3">
         <v>120</v>
       </c>
@@ -4110,7 +4128,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>241</v>
@@ -4118,6 +4136,7 @@
       <c r="G125" s="12" t="s">
         <v>242</v>
       </c>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="3:7">
       <c r="C126" s="3">
@@ -4223,36 +4242,53 @@
     </row>
     <row r="132" spans="3:7">
       <c r="C132" s="3">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="3">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" s="12" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="133" spans="3:7">
       <c r="C133" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7">
+      <c r="C134" s="3">
+        <v>203</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="3">
+        <v>203</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="262">
   <si>
     <t>Id</t>
   </si>
@@ -852,6 +852,12 @@
   </si>
   <si>
     <t>璀璨梦境</t>
+  </si>
+  <si>
+    <t>WJBeta128</t>
+  </si>
+  <si>
+    <t>主播专服</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1926,10 +1932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H134"/>
+  <dimension ref="C3:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4259,36 +4265,53 @@
     </row>
     <row r="133" spans="3:7">
       <c r="C133" s="3">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="3">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="12" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="134" spans="3:7">
       <c r="C134" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7">
+      <c r="C135" s="3">
+        <v>203</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="3">
+        <v>203</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="264">
   <si>
     <t>Id</t>
   </si>
@@ -858,6 +858,12 @@
   </si>
   <si>
     <t>主播专服</t>
+  </si>
+  <si>
+    <t>WJBeta129</t>
+  </si>
+  <si>
+    <t>永恒结界</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1561,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1584,6 +1590,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1932,10 +1939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H135"/>
+  <dimension ref="C3:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4144,7 +4151,7 @@
       </c>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="3:7">
+    <row r="126" spans="3:8">
       <c r="C126" s="3">
         <v>121</v>
       </c>
@@ -4160,8 +4167,9 @@
       <c r="G126" s="12" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="127" spans="3:7">
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="3:8">
       <c r="C127" s="3">
         <v>122</v>
       </c>
@@ -4169,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>245</v>
@@ -4177,6 +4185,7 @@
       <c r="G127" s="12" t="s">
         <v>106</v>
       </c>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="3:7">
       <c r="C128" s="3">
@@ -4282,36 +4291,53 @@
     </row>
     <row r="134" spans="3:7">
       <c r="C134" s="3">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="3">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="135" spans="3:7">
       <c r="C135" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7">
+      <c r="C136" s="3">
+        <v>203</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="3">
+        <v>203</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="266">
   <si>
     <t>Id</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>永恒结界</t>
+  </si>
+  <si>
+    <t>WJBeta130</t>
+  </si>
+  <si>
+    <t>巅峰对决</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1072,12 +1078,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1567,7 +1573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,7 +1596,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1939,10 +1944,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H136"/>
+  <dimension ref="C3:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4302,42 +4307,59 @@
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="12" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="135" spans="3:7">
       <c r="C135" s="3">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="3">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="136" spans="3:7">
       <c r="C136" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>262</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="3">
+        <v>203</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="3">
+        <v>203</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="268">
   <si>
     <t>Id</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>巅峰对决</t>
+  </si>
+  <si>
+    <t>WJBeta131</t>
+  </si>
+  <si>
+    <t>花满楼</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1089,7 +1095,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,12 +1129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1449,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,16 +1473,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1491,89 +1491,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1595,7 +1595,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1944,10 +1943,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H137"/>
+  <dimension ref="C3:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3596,7 +3595,7 @@
       <c r="G94" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="H94" s="11"/>
     </row>
     <row r="95" spans="3:8">
       <c r="C95" s="3">
@@ -3614,7 +3613,7 @@
       <c r="G95" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" spans="3:8">
       <c r="C96" s="3">
@@ -3632,7 +3631,7 @@
       <c r="G96" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H96" s="10"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="3:8">
       <c r="C97" s="3">
@@ -3650,7 +3649,7 @@
       <c r="G97" t="s">
         <v>186</v>
       </c>
-      <c r="H97" s="10"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" spans="3:8">
       <c r="C98" s="3">
@@ -3659,8 +3658,8 @@
       <c r="D98" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="3">
-        <v>93</v>
+      <c r="E98" s="5">
+        <v>89</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>187</v>
@@ -3677,8 +3676,8 @@
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="3">
-        <v>93</v>
+      <c r="E99" s="5">
+        <v>89</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>189</v>
@@ -3695,8 +3694,8 @@
       <c r="D100" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="3">
-        <v>93</v>
+      <c r="E100" s="5">
+        <v>89</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>191</v>
@@ -3713,8 +3712,8 @@
       <c r="D101" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="3">
-        <v>93</v>
+      <c r="E101" s="5">
+        <v>89</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>193</v>
@@ -4028,7 +4027,7 @@
       <c r="G118" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H118" s="10"/>
+      <c r="H118" s="11"/>
     </row>
     <row r="119" spans="3:8">
       <c r="C119" s="3">
@@ -4046,7 +4045,7 @@
       <c r="G119" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H119" s="10"/>
+      <c r="H119" s="11"/>
     </row>
     <row r="120" spans="3:8">
       <c r="C120" s="3">
@@ -4056,7 +4055,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="3">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>231</v>
@@ -4064,7 +4063,7 @@
       <c r="G120" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="H120" s="13"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121" spans="3:8">
       <c r="C121" s="3">
@@ -4074,7 +4073,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="3">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>233</v>
@@ -4082,7 +4081,7 @@
       <c r="G121" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="H121" s="13"/>
+      <c r="H121" s="11"/>
     </row>
     <row r="122" spans="3:8">
       <c r="C122" s="3">
@@ -4192,7 +4191,7 @@
       </c>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="3:7">
+    <row r="128" spans="3:8">
       <c r="C128" s="3">
         <v>123</v>
       </c>
@@ -4208,8 +4207,9 @@
       <c r="G128" s="12" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="129" spans="3:7">
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="3:8">
       <c r="C129" s="3">
         <v>124</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>248</v>
@@ -4225,6 +4225,7 @@
       <c r="G129" s="12" t="s">
         <v>249</v>
       </c>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="3:7">
       <c r="C130" s="3">
@@ -4330,36 +4331,53 @@
     </row>
     <row r="136" spans="3:7">
       <c r="C136" s="3">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="3">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" s="12" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="137" spans="3:7">
       <c r="C137" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" s="3">
+        <v>203</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="3">
+        <v>203</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -724,7 +724,7 @@
     <t>WJBeta108</t>
   </si>
   <si>
-    <t xml:space="preserve">夏日之歌 </t>
+    <t>夏日之歌</t>
   </si>
   <si>
     <t>WJBeta109</t>
@@ -754,16 +754,10 @@
     <t>WJBeta113</t>
   </si>
   <si>
-    <t xml:space="preserve">纵横驰骋 </t>
+    <t>纵横驰骋</t>
   </si>
   <si>
     <t>WJBeta114</t>
-  </si>
-  <si>
-    <t>晴空万里</t>
-  </si>
-  <si>
-    <t>WJBeta115</t>
   </si>
   <si>
     <r>
@@ -773,10 +767,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>九州四海</t>
+      <t>晴空万里</t>
     </r>
   </si>
   <si>
+    <t>WJBeta115</t>
+  </si>
+  <si>
+    <t>九州四海</t>
+  </si>
+  <si>
     <t>WJBeta116</t>
   </si>
   <si>
@@ -804,15 +804,7 @@
     <t>WJBeta120</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>埋骨之地</t>
-    </r>
+    <t>埋骨之地</t>
   </si>
   <si>
     <t>WJBeta121</t>
@@ -1084,18 +1076,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1447,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,16 +1471,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1491,89 +1489,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,6 +1592,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1945,8 +1944,8 @@
   <sheetPr/>
   <dimension ref="C3:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3730,7 +3729,7 @@
       <c r="D102" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="5">
         <v>97</v>
       </c>
       <c r="F102" s="5" t="s">
@@ -3748,7 +3747,7 @@
       <c r="D103" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="5">
         <v>97</v>
       </c>
       <c r="F103" s="5" t="s">
@@ -3766,7 +3765,7 @@
       <c r="D104" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="5">
         <v>97</v>
       </c>
       <c r="F104" s="5" t="s">
@@ -3784,7 +3783,7 @@
       <c r="D105" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="5">
         <v>97</v>
       </c>
       <c r="F105" s="5" t="s">
@@ -3802,7 +3801,7 @@
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="5">
         <v>101</v>
       </c>
       <c r="F106" s="5" t="s">
@@ -3811,7 +3810,7 @@
       <c r="G106" t="s">
         <v>204</v>
       </c>
-      <c r="H106" s="8"/>
+      <c r="H106" s="11"/>
     </row>
     <row r="107" spans="3:8">
       <c r="C107" s="3">
@@ -3820,7 +3819,7 @@
       <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="5">
         <v>101</v>
       </c>
       <c r="F107" s="5" t="s">
@@ -3829,7 +3828,7 @@
       <c r="G107" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H107" s="8"/>
+      <c r="H107" s="11"/>
     </row>
     <row r="108" spans="3:8">
       <c r="C108" s="3">
@@ -3838,7 +3837,7 @@
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="5">
         <v>101</v>
       </c>
       <c r="F108" s="5" t="s">
@@ -3847,7 +3846,7 @@
       <c r="G108" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H108" s="8"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="3:8">
       <c r="C109" s="3">
@@ -3856,7 +3855,7 @@
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="5">
         <v>101</v>
       </c>
       <c r="F109" s="5" t="s">
@@ -3865,7 +3864,7 @@
       <c r="G109" t="s">
         <v>210</v>
       </c>
-      <c r="H109" s="8"/>
+      <c r="H109" s="11"/>
     </row>
     <row r="110" spans="3:8">
       <c r="C110" s="3">
@@ -3874,13 +3873,13 @@
       <c r="D110" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="5">
         <v>105</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" t="s">
         <v>212</v>
       </c>
       <c r="H110" s="10"/>
@@ -3892,7 +3891,7 @@
       <c r="D111" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="5">
         <v>105</v>
       </c>
       <c r="F111" s="5" t="s">
@@ -3910,7 +3909,7 @@
       <c r="D112" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="5">
         <v>105</v>
       </c>
       <c r="F112" s="5" t="s">
@@ -3928,7 +3927,7 @@
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="5">
         <v>105</v>
       </c>
       <c r="F113" s="5" t="s">
@@ -3946,16 +3945,16 @@
       <c r="D114" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="5">
         <v>109</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" t="s">
         <v>220</v>
       </c>
-      <c r="H114" s="6"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="3:8">
       <c r="C115" s="3">
@@ -3964,7 +3963,7 @@
       <c r="D115" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="5">
         <v>109</v>
       </c>
       <c r="F115" s="5" t="s">
@@ -3973,7 +3972,7 @@
       <c r="G115" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H115" s="6"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="3">
@@ -3982,16 +3981,16 @@
       <c r="D116" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="5">
         <v>109</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="6"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="3">
@@ -4000,16 +3999,16 @@
       <c r="D117" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="5">
         <v>109</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" t="s">
         <v>226</v>
       </c>
-      <c r="H117" s="6"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="3:8">
       <c r="C118" s="3">
@@ -4018,7 +4017,7 @@
       <c r="D118" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="5">
         <v>113</v>
       </c>
       <c r="F118" s="5" t="s">
@@ -4027,7 +4026,7 @@
       <c r="G118" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H118" s="11"/>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="3:8">
       <c r="C119" s="3">
@@ -4036,16 +4035,16 @@
       <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="5">
         <v>113</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H119" s="11"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="3:8">
       <c r="C120" s="3">
@@ -4054,16 +4053,16 @@
       <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="5">
         <v>113</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G120" s="12" t="s">
+      <c r="G120" t="s">
         <v>232</v>
       </c>
-      <c r="H120" s="11"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="3:8">
       <c r="C121" s="3">
@@ -4072,16 +4071,16 @@
       <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="5">
         <v>113</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G121" s="12" t="s">
+      <c r="G121" t="s">
         <v>234</v>
       </c>
-      <c r="H121" s="11"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="3:8">
       <c r="C122" s="3">
@@ -4090,16 +4089,16 @@
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="5">
         <v>117</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" t="s">
         <v>236</v>
       </c>
-      <c r="H122" s="10"/>
+      <c r="H122" s="11"/>
     </row>
     <row r="123" spans="3:8">
       <c r="C123" s="3">
@@ -4108,16 +4107,16 @@
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="5">
         <v>117</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G123" s="12" t="s">
+      <c r="G123" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="H123" s="10"/>
+      <c r="H123" s="11"/>
     </row>
     <row r="124" spans="3:8">
       <c r="C124" s="3">
@@ -4126,16 +4125,16 @@
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="5">
         <v>119</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G124" s="12" t="s">
+      <c r="G124" t="s">
         <v>240</v>
       </c>
-      <c r="H124" s="11"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="3:8">
       <c r="C125" s="3">
@@ -4144,16 +4143,16 @@
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="5">
         <v>119</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G125" t="s">
         <v>242</v>
       </c>
-      <c r="H125" s="11"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="3:8">
       <c r="C126" s="3">
@@ -4162,16 +4161,16 @@
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="5">
         <v>121</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G126" s="12" t="s">
+      <c r="G126" t="s">
         <v>244</v>
       </c>
-      <c r="H126" s="10"/>
+      <c r="H126" s="11"/>
     </row>
     <row r="127" spans="3:8">
       <c r="C127" s="3">
@@ -4180,16 +4179,16 @@
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="5">
         <v>121</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G127" s="12" t="s">
+      <c r="G127" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H127" s="10"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="3:8">
       <c r="C128" s="3">
@@ -4198,16 +4197,16 @@
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="5">
         <v>123</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G128" s="12" t="s">
+      <c r="G128" t="s">
         <v>247</v>
       </c>
-      <c r="H128" s="11"/>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="3:8">
       <c r="C129" s="3">
@@ -4216,16 +4215,16 @@
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="5">
         <v>123</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G129" s="12" t="s">
+      <c r="G129" t="s">
         <v>249</v>
       </c>
-      <c r="H129" s="11"/>
+      <c r="H129" s="10"/>
     </row>
     <row r="130" spans="3:7">
       <c r="C130" s="3">
@@ -4234,13 +4233,13 @@
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="5">
         <v>125</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="G130" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4251,13 +4250,13 @@
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="5">
         <v>126</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G131" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4268,13 +4267,13 @@
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="5">
         <v>127</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4285,13 +4284,13 @@
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="5">
         <v>128</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G133" s="12" t="s">
+      <c r="G133" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4302,13 +4301,13 @@
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="5">
         <v>129</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G134" s="13" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4319,13 +4318,13 @@
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="5">
         <v>130</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G135" s="12" t="s">
+      <c r="G135" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4336,13 +4335,13 @@
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="5">
         <v>131</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G136" s="12" t="s">
+      <c r="G136" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4353,7 +4352,7 @@
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="5">
         <v>202</v>
       </c>
       <c r="F137" s="5" t="s">
@@ -4370,7 +4369,7 @@
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="5">
         <v>203</v>
       </c>
       <c r="F138" s="5" t="s">

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="269">
   <si>
     <t>Id</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>花满楼</t>
+  </si>
+  <si>
+    <t>WJBeta132</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1076,12 +1079,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1942,10 +1945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H138"/>
+  <dimension ref="C3:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4347,36 +4350,51 @@
     </row>
     <row r="137" spans="3:7">
       <c r="C137" s="3">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="G137"/>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
+        <v>202</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="5">
+        <v>202</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" s="3">
         <v>203</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="5">
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="5">
         <v>203</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F139" s="5" t="s">
         <v>267</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="270">
   <si>
     <t>Id</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>WJBeta132</t>
+  </si>
+  <si>
+    <t>星辰之怒</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1079,12 +1082,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1574,7 +1577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,6 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1948,7 +1952,7 @@
   <dimension ref="C3:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4361,7 +4365,9 @@
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137"/>
+      <c r="G137" s="14" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
@@ -4374,10 +4380,10 @@
         <v>202</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="3:7">
@@ -4391,10 +4397,10 @@
         <v>203</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -874,6 +874,9 @@
   </si>
   <si>
     <t>星辰之怒</t>
+  </si>
+  <si>
+    <t>WJBeta133</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1577,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1599,7 +1602,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1949,10 +1951,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H139"/>
+  <dimension ref="C3:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4365,42 +4367,57 @@
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="G138" s="13"/>
     </row>
     <row r="139" spans="3:7">
       <c r="C139" s="3">
+        <v>202</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="5">
+        <v>202</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="3">
         <v>203</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="5">
+      <c r="D140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="5">
         <v>203</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F140" s="5" t="s">
         <v>269</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="272">
   <si>
     <t>Id</t>
   </si>
@@ -877,6 +877,9 @@
   </si>
   <si>
     <t>WJBeta133</t>
+  </si>
+  <si>
+    <t>奇迹之光</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1580,7 +1583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1602,6 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1954,7 +1958,7 @@
   <dimension ref="C3:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4384,7 +4388,9 @@
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138" s="13"/>
+      <c r="G138" s="14" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="139" spans="3:7">
       <c r="C139" s="3">
@@ -4397,10 +4403,10 @@
         <v>202</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="3:7">
@@ -4414,10 +4420,10 @@
         <v>203</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="274">
   <si>
     <t>Id</t>
   </si>
@@ -880,6 +880,12 @@
   </si>
   <si>
     <t>奇迹之光</t>
+  </si>
+  <si>
+    <t>WJBeta134</t>
+  </si>
+  <si>
+    <t>风暴之怒</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1955,13 +1961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H140"/>
+  <dimension ref="C3:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -3751,7 +3757,7 @@
       <c r="G102" t="s">
         <v>196</v>
       </c>
-      <c r="H102" s="10"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="3:8">
       <c r="C103" s="3">
@@ -3769,7 +3775,7 @@
       <c r="G103" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H103" s="10"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="3:8">
       <c r="C104" s="3">
@@ -3787,7 +3793,7 @@
       <c r="G104" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H104" s="10"/>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" spans="3:8">
       <c r="C105" s="3">
@@ -3805,7 +3811,7 @@
       <c r="G105" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H105" s="10"/>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="3:8">
       <c r="C106" s="3">
@@ -3815,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>203</v>
@@ -3823,7 +3829,7 @@
       <c r="G106" t="s">
         <v>204</v>
       </c>
-      <c r="H106" s="11"/>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" spans="3:8">
       <c r="C107" s="3">
@@ -3833,7 +3839,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>205</v>
@@ -3841,7 +3847,7 @@
       <c r="G107" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H107" s="11"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="3:8">
       <c r="C108" s="3">
@@ -3851,7 +3857,7 @@
         <v>9</v>
       </c>
       <c r="E108" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>207</v>
@@ -3859,7 +3865,7 @@
       <c r="G108" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H108" s="11"/>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" spans="3:8">
       <c r="C109" s="3">
@@ -3869,7 +3875,7 @@
         <v>9</v>
       </c>
       <c r="E109" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>209</v>
@@ -3877,7 +3883,7 @@
       <c r="G109" t="s">
         <v>210</v>
       </c>
-      <c r="H109" s="11"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" spans="3:8">
       <c r="C110" s="3">
@@ -4111,7 +4117,7 @@
       <c r="G122" t="s">
         <v>236</v>
       </c>
-      <c r="H122" s="11"/>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" spans="3:8">
       <c r="C123" s="3">
@@ -4129,7 +4135,7 @@
       <c r="G123" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="H123" s="11"/>
+      <c r="H123" s="6"/>
     </row>
     <row r="124" spans="3:8">
       <c r="C124" s="3">
@@ -4139,7 +4145,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="5">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>239</v>
@@ -4147,7 +4153,7 @@
       <c r="G124" t="s">
         <v>240</v>
       </c>
-      <c r="H124" s="12"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" spans="3:8">
       <c r="C125" s="3">
@@ -4157,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="5">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>241</v>
@@ -4165,7 +4171,7 @@
       <c r="G125" t="s">
         <v>242</v>
       </c>
-      <c r="H125" s="12"/>
+      <c r="H125" s="6"/>
     </row>
     <row r="126" spans="3:8">
       <c r="C126" s="3">
@@ -4239,7 +4245,7 @@
       </c>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="3:7">
+    <row r="130" spans="3:8">
       <c r="C130" s="3">
         <v>125</v>
       </c>
@@ -4255,8 +4261,9 @@
       <c r="G130" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="131" spans="3:7">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="3:8">
       <c r="C131" s="3">
         <v>126</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>9</v>
       </c>
       <c r="E131" s="5">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>252</v>
@@ -4272,8 +4279,9 @@
       <c r="G131" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="132" spans="3:7">
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="3:8">
       <c r="C132" s="3">
         <v>127</v>
       </c>
@@ -4289,8 +4297,9 @@
       <c r="G132" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="133" spans="3:7">
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="3:9">
       <c r="C133" s="3">
         <v>128</v>
       </c>
@@ -4306,8 +4315,9 @@
       <c r="G133" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="134" spans="3:7">
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="3:8">
       <c r="C134" s="3">
         <v>129</v>
       </c>
@@ -4315,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="E134" s="5">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
@@ -4323,6 +4333,7 @@
       <c r="G134" s="13" t="s">
         <v>259</v>
       </c>
+      <c r="H134" s="10"/>
     </row>
     <row r="135" spans="3:7">
       <c r="C135" s="3">
@@ -4388,42 +4399,59 @@
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="139" spans="3:7">
       <c r="C139" s="3">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="140" spans="3:7">
       <c r="C140" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>270</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" s="3">
+        <v>203</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="5">
+        <v>203</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="276">
   <si>
     <t>Id</t>
   </si>
@@ -886,6 +886,12 @@
   </si>
   <si>
     <t>风暴之怒</t>
+  </si>
+  <si>
+    <t>WJBeta135</t>
+  </si>
+  <si>
+    <t>永恒之境</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1589,7 +1595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,7 +1617,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1961,10 +1966,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I141"/>
+  <dimension ref="C3:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4416,42 +4421,59 @@
       <c r="F139" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="13" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="140" spans="3:7">
       <c r="C140" s="3">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="141" spans="3:7">
       <c r="C141" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>272</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" s="3">
+        <v>203</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="5">
+        <v>203</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="278">
   <si>
     <t>Id</t>
   </si>
@@ -892,6 +892,12 @@
   </si>
   <si>
     <t>永恒之境</t>
+  </si>
+  <si>
+    <t>WJBeta136</t>
+  </si>
+  <si>
+    <t>烽火狼烟</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1150,7 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,8 +1622,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1966,10 +1972,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I142"/>
+  <dimension ref="C3:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3906,7 +3912,7 @@
       <c r="G110" t="s">
         <v>212</v>
       </c>
-      <c r="H110" s="10"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="3:8">
       <c r="C111" s="3">
@@ -3924,7 +3930,7 @@
       <c r="G111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H111" s="10"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="3">
@@ -3942,7 +3948,7 @@
       <c r="G112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H112" s="10"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="3:8">
       <c r="C113" s="3">
@@ -3960,7 +3966,7 @@
       <c r="G113" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H113" s="10"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="114" spans="3:8">
       <c r="C114" s="3">
@@ -3970,7 +3976,7 @@
         <v>9</v>
       </c>
       <c r="E114" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>219</v>
@@ -3978,7 +3984,7 @@
       <c r="G114" t="s">
         <v>220</v>
       </c>
-      <c r="H114" s="12"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" spans="3:8">
       <c r="C115" s="3">
@@ -3988,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="E115" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>221</v>
@@ -3996,7 +4002,7 @@
       <c r="G115" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H115" s="12"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="3">
@@ -4006,7 +4012,7 @@
         <v>9</v>
       </c>
       <c r="E116" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>223</v>
@@ -4014,7 +4020,7 @@
       <c r="G116" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="12"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="3">
@@ -4024,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="E117" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>225</v>
@@ -4032,7 +4038,7 @@
       <c r="G117" t="s">
         <v>226</v>
       </c>
-      <c r="H117" s="12"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118" spans="3:8">
       <c r="C118" s="3">
@@ -4065,7 +4071,7 @@
       <c r="F119" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="G119" s="12" t="s">
         <v>230</v>
       </c>
       <c r="H119" s="10"/>
@@ -4137,7 +4143,7 @@
       <c r="F123" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="12" t="s">
         <v>238</v>
       </c>
       <c r="H123" s="6"/>
@@ -4209,7 +4215,7 @@
       <c r="F127" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="G127" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H127" s="11"/>
@@ -4302,7 +4308,7 @@
       <c r="G132" t="s">
         <v>255</v>
       </c>
-      <c r="H132" s="10"/>
+      <c r="H132" s="11"/>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" s="3">
@@ -4320,7 +4326,7 @@
       <c r="G133" t="s">
         <v>257</v>
       </c>
-      <c r="I133" s="10"/>
+      <c r="I133" s="11"/>
     </row>
     <row r="134" spans="3:8">
       <c r="C134" s="3">
@@ -4335,12 +4341,12 @@
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G134" s="13" t="s">
+      <c r="G134" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="3:7">
+      <c r="H134" s="11"/>
+    </row>
+    <row r="135" spans="3:8">
       <c r="C135" s="3">
         <v>130</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>9</v>
       </c>
       <c r="E135" s="5">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
@@ -4356,8 +4362,9 @@
       <c r="G135" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="136" spans="3:7">
+      <c r="H135" s="13"/>
+    </row>
+    <row r="136" spans="3:8">
       <c r="C136" s="3">
         <v>131</v>
       </c>
@@ -4373,8 +4380,9 @@
       <c r="G136" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="137" spans="3:7">
+      <c r="H136" s="10"/>
+    </row>
+    <row r="137" spans="3:8">
       <c r="C137" s="3">
         <v>132</v>
       </c>
@@ -4382,14 +4390,15 @@
         <v>9</v>
       </c>
       <c r="E137" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="13" t="s">
+      <c r="G137" s="12" t="s">
         <v>265</v>
       </c>
+      <c r="H137" s="10"/>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
@@ -4404,7 +4413,7 @@
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138" s="13" t="s">
+      <c r="G138" s="12" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4421,7 +4430,7 @@
       <c r="F139" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G139" s="13" t="s">
+      <c r="G139" s="12" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4444,36 +4453,53 @@
     </row>
     <row r="141" spans="3:7">
       <c r="C141" s="3">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="142" spans="3:7">
       <c r="C142" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>274</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="3">
+        <v>203</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="5">
+        <v>203</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="280">
   <si>
     <t>Id</t>
   </si>
@@ -898,6 +898,12 @@
   </si>
   <si>
     <t>烽火狼烟</t>
+  </si>
+  <si>
+    <t>WJBeta137</t>
+  </si>
+  <si>
+    <t>千山万水</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1106,18 +1112,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,12 +1151,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,7 +1477,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1501,16 +1501,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1519,89 +1519,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,7 +1623,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1972,10 +1971,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I143"/>
+  <dimension ref="C3:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4362,7 +4361,7 @@
       <c r="G135" t="s">
         <v>261</v>
       </c>
-      <c r="H135" s="13"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136" spans="3:8">
       <c r="C136" s="3">
@@ -4470,36 +4469,53 @@
     </row>
     <row r="142" spans="3:7">
       <c r="C142" s="3">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G142" s="12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="143" spans="3:7">
       <c r="C143" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>276</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="C144" s="3">
+        <v>203</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="5">
+        <v>203</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="282">
   <si>
     <t>Id</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>千山万水</t>
+  </si>
+  <si>
+    <t>WJBeta138</t>
+  </si>
+  <si>
+    <t>凤凰于飞</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1123,7 +1129,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,6 +1163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,7 +1489,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1501,16 +1513,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1519,89 +1531,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,6 +1634,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1971,10 +1985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I144"/>
+  <dimension ref="C3:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4119,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="E122" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>235</v>
@@ -4127,7 +4141,7 @@
       <c r="G122" t="s">
         <v>236</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="3:8">
       <c r="C123" s="3">
@@ -4137,7 +4151,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>237</v>
@@ -4145,7 +4159,7 @@
       <c r="G123" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="3:8">
       <c r="C124" s="3">
@@ -4155,7 +4169,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>239</v>
@@ -4163,7 +4177,7 @@
       <c r="G124" t="s">
         <v>240</v>
       </c>
-      <c r="H124" s="6"/>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="3:8">
       <c r="C125" s="3">
@@ -4173,7 +4187,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>241</v>
@@ -4181,7 +4195,7 @@
       <c r="G125" t="s">
         <v>242</v>
       </c>
-      <c r="H125" s="6"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="3:8">
       <c r="C126" s="3">
@@ -4227,7 +4241,7 @@
         <v>9</v>
       </c>
       <c r="E128" s="5">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>246</v>
@@ -4235,7 +4249,7 @@
       <c r="G128" t="s">
         <v>247</v>
       </c>
-      <c r="H128" s="10"/>
+      <c r="H128" s="11"/>
     </row>
     <row r="129" spans="3:8">
       <c r="C129" s="3">
@@ -4245,7 +4259,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="5">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>248</v>
@@ -4253,7 +4267,7 @@
       <c r="G129" t="s">
         <v>249</v>
       </c>
-      <c r="H129" s="10"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="3:8">
       <c r="C130" s="3">
@@ -4399,7 +4413,7 @@
       </c>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" spans="3:7">
+    <row r="138" spans="3:8">
       <c r="C138" s="3">
         <v>133</v>
       </c>
@@ -4415,8 +4429,9 @@
       <c r="G138" s="12" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="139" spans="3:7">
+      <c r="H138" s="13"/>
+    </row>
+    <row r="139" spans="3:8">
       <c r="C139" s="3">
         <v>134</v>
       </c>
@@ -4424,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="E139" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>268</v>
@@ -4432,6 +4447,7 @@
       <c r="G139" s="12" t="s">
         <v>269</v>
       </c>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="3:7">
       <c r="C140" s="3">
@@ -4486,36 +4502,53 @@
     </row>
     <row r="143" spans="3:7">
       <c r="C143" s="3">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="144" spans="3:7">
       <c r="C144" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>278</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="3">
+        <v>203</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="5">
+        <v>203</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="285">
   <si>
     <t>Id</t>
   </si>
@@ -910,6 +910,15 @@
   </si>
   <si>
     <t>凤凰于飞</t>
+  </si>
+  <si>
+    <t>WJBeta139</t>
+  </si>
+  <si>
+    <t>WJBeta140</t>
+  </si>
+  <si>
+    <t>WJBeta141</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1118,12 +1127,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1613,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,7 +1645,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1985,10 +1993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I145"/>
+  <dimension ref="C3:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4513,42 +4521,87 @@
       <c r="F143" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G143" s="14" t="s">
+      <c r="G143" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="144" spans="3:7">
       <c r="C144" s="3">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" spans="3:7">
       <c r="C145" s="3">
+        <v>140</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="5">
+        <v>140</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="3:7">
+      <c r="C146" s="3">
+        <v>141</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="5">
+        <v>141</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="3">
+        <v>202</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="5">
+        <v>202</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="3">
         <v>203</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="5">
+      <c r="D148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5">
         <v>203</v>
       </c>
-      <c r="F145" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>281</v>
+      <c r="F148" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="286">
   <si>
     <t>Id</t>
   </si>
@@ -913,6 +913,9 @@
   </si>
   <si>
     <t>WJBeta139</t>
+  </si>
+  <si>
+    <t>吉祥如意</t>
   </si>
   <si>
     <t>WJBeta140</t>
@@ -1996,7 +1999,7 @@
   <dimension ref="C3:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4538,7 +4541,9 @@
       <c r="F144" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G144" s="12"/>
+      <c r="G144" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="145" spans="3:7">
       <c r="C145" s="3">
@@ -4551,7 +4556,7 @@
         <v>140</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G145" s="12"/>
     </row>
@@ -4566,7 +4571,7 @@
         <v>141</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G146" s="12"/>
     </row>
@@ -4581,10 +4586,10 @@
         <v>202</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="3:7">
@@ -4598,10 +4603,10 @@
         <v>203</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>WJBeta141</t>
+  </si>
+  <si>
+    <t>WJBeta142</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1996,10 +1999,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I148"/>
+  <dimension ref="C3:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4558,7 +4561,9 @@
       <c r="F145" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G145" s="12"/>
+      <c r="G145" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="146" spans="3:7">
       <c r="C146" s="3">
@@ -4573,40 +4578,57 @@
       <c r="F146" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G146" s="12"/>
+      <c r="G146" s="12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="147" spans="3:7">
       <c r="C147" s="3">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="5">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" spans="3:7">
       <c r="C148" s="3">
+        <v>202</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5">
+        <v>202</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7">
+      <c r="C149" s="3">
         <v>203</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="5">
+      <c r="D149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="5">
         <v>203</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="F149" s="5" t="s">
         <v>285</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -2002,7 +2002,7 @@
   <dimension ref="C3:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4595,7 +4595,9 @@
       <c r="F147" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G147" s="12"/>
+      <c r="G147" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="148" spans="3:7">
       <c r="C148" s="3">

--- a/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="289">
   <si>
     <t>Id</t>
   </si>
@@ -925,6 +925,12 @@
   </si>
   <si>
     <t>WJBeta142</t>
+  </si>
+  <si>
+    <t>WJBeta143</t>
+  </si>
+  <si>
+    <t>湖光月色</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1144,7 +1150,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,12 +1184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,7 +1504,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1528,16 +1528,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1546,89 +1546,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,7 +1650,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1999,10 +1998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I149"/>
+  <dimension ref="C3:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+      <selection activeCell="A142" sqref="$A142:$XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4299,7 +4298,7 @@
       <c r="G130" t="s">
         <v>251</v>
       </c>
-      <c r="H130" s="6"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="3:8">
       <c r="C131" s="3">
@@ -4317,7 +4316,7 @@
       <c r="G131" t="s">
         <v>253</v>
       </c>
-      <c r="H131" s="6"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="3:8">
       <c r="C132" s="3">
@@ -4327,7 +4326,7 @@
         <v>9</v>
       </c>
       <c r="E132" s="5">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>254</v>
@@ -4335,7 +4334,7 @@
       <c r="G132" t="s">
         <v>255</v>
       </c>
-      <c r="H132" s="11"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" s="3">
@@ -4363,7 +4362,7 @@
         <v>9</v>
       </c>
       <c r="E134" s="5">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
@@ -4371,7 +4370,7 @@
       <c r="G134" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="H134" s="11"/>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="3:8">
       <c r="C135" s="3">
@@ -4381,7 +4380,7 @@
         <v>9</v>
       </c>
       <c r="E135" s="5">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
@@ -4389,7 +4388,7 @@
       <c r="G135" t="s">
         <v>261</v>
       </c>
-      <c r="H135" s="11"/>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="3:8">
       <c r="C136" s="3">
@@ -4435,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="E138" s="5">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>266</v>
@@ -4443,7 +4442,7 @@
       <c r="G138" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="H138" s="13"/>
+      <c r="H138" s="10"/>
     </row>
     <row r="139" spans="3:8">
       <c r="C139" s="3">
@@ -4453,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="E139" s="5">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>268</v>
@@ -4461,9 +4460,9 @@
       <c r="G139" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H139" s="13"/>
-    </row>
-    <row r="140" spans="3:7">
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="3:8">
       <c r="C140" s="3">
         <v>135</v>
       </c>
@@ -4479,8 +4478,9 @@
       <c r="G140" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="141" spans="3:7">
+      <c r="H140" s="11"/>
+    </row>
+    <row r="141" spans="3:8">
       <c r="C141" s="3">
         <v>136</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>272</v>
@@ -4496,8 +4496,9 @@
       <c r="G141" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="142" spans="3:7">
+      <c r="H141" s="11"/>
+    </row>
+    <row r="142" spans="3:8">
       <c r="C142" s="3">
         <v>137</v>
       </c>
@@ -4513,8 +4514,9 @@
       <c r="G142" s="12" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="143" spans="3:7">
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="3:8">
       <c r="C143" s="3">
         <v>138</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="5">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>276</v>
@@ -4530,6 +4532,7 @@
       <c r="G143" s="12" t="s">
         <v>277</v>
       </c>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" spans="3:7">
       <c r="C144" s="3">
@@ -4601,36 +4604,53 @@
     </row>
     <row r="148" spans="3:7">
       <c r="C148" s="3">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="5">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" s="12" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="149" spans="3:7">
       <c r="C149" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E149" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>285</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7">
+      <c r="C150" s="3">
+        <v>203</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="5">
+        <v>203</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
